--- a/python/three/Error t1=6 t2=5 t3=4 δ1=0.17 δ2=0.5.xlsx
+++ b/python/three/Error t1=6 t2=5 t3=4 δ1=0.17 δ2=0.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Guess</t>
+          <t>Fitted 1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 1</t>
+          <t>% Error</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Fitted 2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>% Error</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fitted 2</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Fitted 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>% Error</t>
         </is>
@@ -478,142 +473,85 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.55e+00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-9.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.81e+00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>6.12e+00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
+          <t>τ1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.282</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5.00e+00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.00e+00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.47e+00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-9.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.34e+00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>13.2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5.35e+00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-7.04</t>
-        </is>
+          <t>τ2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4.00e+00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4.00e+00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.53e+00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-13.2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.58e+01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-295.0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>6.26e+00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-56.4</t>
-        </is>
+          <t>τ3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-48.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-25.3</v>
       </c>
     </row>
     <row r="5">
@@ -622,45 +560,26 @@
           <t>δ1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.70e-01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.70e-01</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.12e-02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-15.5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.73e-01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-296.0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9.56e-02</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-59.3</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-38.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -669,92 +588,54 @@
           <t>δ2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5.00e-01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5.00e-01</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.17e-01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.00e-01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-60.6</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5.00e-01</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>43.8</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.11e-14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.11e-14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1.11e-14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Q [Fs^(1-α)]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5.02e-05</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.02e-04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36.5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.11e-14</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.02e-04</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.11e-14</t>
-        </is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.99e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.0629</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.000102</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="8">
@@ -763,44 +644,93 @@
           <t>α</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9.45e-01</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.52e-01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-0.237</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>9.53e-01</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-0.288</t>
+      <c r="B8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.0453</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0931</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>SSv</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0702</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0814</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>

--- a/python/three/Error t1=6 t2=5 t3=4 δ1=0.17 δ2=0.5.xlsx
+++ b/python/three/Error t1=6 t2=5 t3=4 δ1=0.17 δ2=0.5.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.98</v>
+        <v>6.08</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.282</v>
+        <v>1.36</v>
       </c>
       <c r="E2" t="n">
-        <v>5.99</v>
+        <v>5.94</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.105</v>
+        <v>-0.921</v>
       </c>
       <c r="G2" t="n">
-        <v>6.14</v>
+        <v>5.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>4.82</v>
+        <v>5.05</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.59</v>
+        <v>1.06</v>
       </c>
       <c r="E3" t="n">
-        <v>5.35</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>6.97</v>
+        <v>-80</v>
       </c>
       <c r="G3" t="n">
-        <v>4.91</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.76</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2.07</v>
+        <v>5.55</v>
       </c>
       <c r="D4" t="n">
-        <v>-48.4</v>
+        <v>38.8</v>
       </c>
       <c r="E4" t="n">
-        <v>3.45</v>
+        <v>6.19</v>
       </c>
       <c r="F4" t="n">
-        <v>-13.8</v>
+        <v>54.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2.99</v>
+        <v>9.49</v>
       </c>
       <c r="H4" t="n">
-        <v>-25.3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         <v>0.17</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195</v>
+        <v>0.114</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8</v>
+        <v>-32.7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.104</v>
+        <v>0.308</v>
       </c>
       <c r="F5" t="n">
-        <v>-38.8</v>
+        <v>81.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.201</v>
+        <v>0.381</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.401</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.11e-14</v>
+        <v>-19.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.0988</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.11e-14</v>
+        <v>-80.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.194</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.11e-14</v>
+        <v>-61.2</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         <v>0.0001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001</v>
+        <v>0.000101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.374</v>
+        <v>0.623</v>
       </c>
       <c r="E7" t="n">
-        <v>9.99e-05</v>
+        <v>0.000101</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0629</v>
+        <v>1.06</v>
       </c>
       <c r="G7" t="n">
         <v>0.000102</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +651,19 @@
         <v>0.95</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0453</v>
+        <v>0.0401</v>
       </c>
       <c r="E8" t="n">
         <v>0.95</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0449</v>
+        <v>-0.0163</v>
       </c>
       <c r="G8" t="n">
-        <v>0.951</v>
+        <v>0.95</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0931</v>
+        <v>0.00797</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +676,23 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>13.5</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>15.7</v>
+        <v>17.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0702</v>
+        <v>0.065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0646</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.0814</v>
+        <v>0.0906</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
